--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_10_9_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_10_9_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.08692415871688995</v>
+        <v>0.09922310024226133</v>
       </c>
       <c r="C2">
-        <v>0.4489496882726305</v>
+        <v>0.6429000669399494</v>
       </c>
       <c r="D2">
-        <v>0.3262969795491077</v>
+        <v>0.7520274682798707</v>
       </c>
       <c r="E2">
-        <v>0.5712241062394932</v>
+        <v>0.8671951731184109</v>
       </c>
       <c r="F2">
-        <v>0.577260257759593</v>
+        <v>0.8808619649147968</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.002553697066920395</v>
+        <v>0.5656050939845083</v>
       </c>
       <c r="C3">
-        <v>0.5658358590261171</v>
+        <v>0.8647777313126734</v>
       </c>
       <c r="D3">
-        <v>0.5376784437804385</v>
+        <v>4.153474585096863</v>
       </c>
       <c r="E3">
-        <v>0.7332656024800553</v>
+        <v>2.038007503690029</v>
       </c>
       <c r="F3">
-        <v>0.7505167201924804</v>
+        <v>2.001953655391513</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0651984737114082</v>
+        <v>0.2207140035010983</v>
       </c>
       <c r="C4">
-        <v>0.3928637431660651</v>
+        <v>1.3294245198813</v>
       </c>
       <c r="D4">
-        <v>0.2463207646819407</v>
+        <v>7.422634178464651</v>
       </c>
       <c r="E4">
-        <v>0.4963071273737067</v>
+        <v>2.724451170137694</v>
       </c>
       <c r="F4">
-        <v>0.5041561463406211</v>
+        <v>2.776526186899352</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.08449645211527543</v>
+        <v>0.1296392257709591</v>
       </c>
       <c r="C5">
-        <v>0.5227040812392598</v>
+        <v>1.189108630902367</v>
       </c>
       <c r="D5">
-        <v>0.4080452692200807</v>
+        <v>7.156362825654766</v>
       </c>
       <c r="E5">
-        <v>0.638784211780536</v>
+        <v>2.675137907782469</v>
       </c>
       <c r="F5">
-        <v>0.6496198230706389</v>
+        <v>2.73204717969972</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.008651778582802071</v>
+        <v>0.2483310698430933</v>
       </c>
       <c r="C6">
-        <v>0.3534920523821091</v>
+        <v>1.328958641558978</v>
       </c>
       <c r="D6">
-        <v>0.1987829789312101</v>
+        <v>7.318429987019594</v>
       </c>
       <c r="E6">
-        <v>0.4458508483015482</v>
+        <v>2.70525968938651</v>
       </c>
       <c r="F6">
-        <v>0.4579819493964025</v>
+        <v>2.754380959454445</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1021562244677468</v>
+        <v>0.08227230788722427</v>
       </c>
       <c r="C7">
-        <v>0.5059495565191923</v>
+        <v>1.318120586854214</v>
       </c>
       <c r="D7">
-        <v>0.3884286911590425</v>
+        <v>7.426106611105771</v>
       </c>
       <c r="E7">
-        <v>0.6232404761879979</v>
+        <v>2.72508836757742</v>
       </c>
       <c r="F7">
-        <v>0.6326354932905994</v>
+        <v>2.785063824995722</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.01064431491224962</v>
+        <v>0.1542305310830249</v>
       </c>
       <c r="C8">
-        <v>0.3832088633390937</v>
+        <v>1.391611281455843</v>
       </c>
       <c r="D8">
-        <v>0.1943466901180776</v>
+        <v>7.566127095767188</v>
       </c>
       <c r="E8">
-        <v>0.4408476949220418</v>
+        <v>2.750659392903307</v>
       </c>
       <c r="F8">
-        <v>0.4542829244760465</v>
+        <v>2.808055141407951</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06351088056069146</v>
+        <v>0.07646437456699881</v>
       </c>
       <c r="C9">
-        <v>0.5010963373417726</v>
+        <v>1.325677262431856</v>
       </c>
       <c r="D9">
-        <v>0.3478605969871007</v>
+        <v>7.411852158525697</v>
       </c>
       <c r="E9">
-        <v>0.5897970811958132</v>
+        <v>2.722471700224944</v>
       </c>
       <c r="F9">
-        <v>0.6055978555994674</v>
+        <v>2.782560325514475</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.05211964050975834</v>
+        <v>0.09571397171271183</v>
       </c>
       <c r="C10">
-        <v>0.4220779635074709</v>
+        <v>1.368091915780792</v>
       </c>
       <c r="D10">
-        <v>0.260650320927471</v>
+        <v>7.486065218487993</v>
       </c>
       <c r="E10">
-        <v>0.5105392452372991</v>
+        <v>2.736067473306898</v>
       </c>
       <c r="F10">
-        <v>0.5256973572591165</v>
+        <v>2.795847515386641</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.01427381144710023</v>
+        <v>-0.06089602018342149</v>
       </c>
       <c r="C11">
-        <v>0.5073784985679983</v>
+        <v>1.19495528039359</v>
       </c>
       <c r="D11">
-        <v>0.3807668215771804</v>
+        <v>7.144702766220164</v>
       </c>
       <c r="E11">
-        <v>0.6170630612645521</v>
+        <v>2.672957681337317</v>
       </c>
       <c r="F11">
-        <v>0.6401852567436628</v>
+        <v>2.732322290168679</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_10_9_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AVERAGE_10_9_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.09922310024226133</v>
+        <v>0.08692415871688995</v>
       </c>
       <c r="C2">
-        <v>0.6429000669399494</v>
+        <v>0.4489496882726305</v>
       </c>
       <c r="D2">
-        <v>0.7520274682798707</v>
+        <v>0.3262969795491077</v>
       </c>
       <c r="E2">
-        <v>0.8671951731184109</v>
+        <v>0.5712241062394932</v>
       </c>
       <c r="F2">
-        <v>0.8808619649147968</v>
+        <v>0.577260257759593</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.5656050939845083</v>
+        <v>0.09922310024226133</v>
       </c>
       <c r="C3">
-        <v>0.8647777313126734</v>
+        <v>0.6429000669399494</v>
       </c>
       <c r="D3">
-        <v>4.153474585096863</v>
+        <v>0.7520274682798707</v>
       </c>
       <c r="E3">
-        <v>2.038007503690029</v>
+        <v>0.8671951731184109</v>
       </c>
       <c r="F3">
-        <v>2.001953655391513</v>
+        <v>0.8808619649147968</v>
       </c>
       <c r="G3">
         <v>23</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2207140035010983</v>
+        <v>0.5656050939845083</v>
       </c>
       <c r="C4">
-        <v>1.3294245198813</v>
+        <v>0.8647777313126734</v>
       </c>
       <c r="D4">
-        <v>7.422634178464651</v>
+        <v>4.153474585096863</v>
       </c>
       <c r="E4">
-        <v>2.724451170137694</v>
+        <v>2.038007503690029</v>
       </c>
       <c r="F4">
-        <v>2.776526186899352</v>
+        <v>2.001953655391513</v>
       </c>
       <c r="G4">
         <v>23</v>
@@ -519,19 +519,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1296392257709591</v>
+        <v>0.2207140035010983</v>
       </c>
       <c r="C5">
-        <v>1.189108630902367</v>
+        <v>1.3294245198813</v>
       </c>
       <c r="D5">
-        <v>7.156362825654766</v>
+        <v>7.422634178464651</v>
       </c>
       <c r="E5">
-        <v>2.675137907782469</v>
+        <v>2.724451170137694</v>
       </c>
       <c r="F5">
-        <v>2.73204717969972</v>
+        <v>2.776526186899352</v>
       </c>
       <c r="G5">
         <v>23</v>
@@ -542,19 +542,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2483310698430933</v>
+        <v>0.1296392257709591</v>
       </c>
       <c r="C6">
-        <v>1.328958641558978</v>
+        <v>1.189108630902367</v>
       </c>
       <c r="D6">
-        <v>7.318429987019594</v>
+        <v>7.156362825654766</v>
       </c>
       <c r="E6">
-        <v>2.70525968938651</v>
+        <v>2.675137907782469</v>
       </c>
       <c r="F6">
-        <v>2.754380959454445</v>
+        <v>2.73204717969972</v>
       </c>
       <c r="G6">
         <v>23</v>
@@ -565,19 +565,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.08227230788722427</v>
+        <v>0.2483310698430933</v>
       </c>
       <c r="C7">
-        <v>1.318120586854214</v>
+        <v>1.328958641558978</v>
       </c>
       <c r="D7">
-        <v>7.426106611105771</v>
+        <v>7.318429987019594</v>
       </c>
       <c r="E7">
-        <v>2.72508836757742</v>
+        <v>2.70525968938651</v>
       </c>
       <c r="F7">
-        <v>2.785063824995722</v>
+        <v>2.754380959454445</v>
       </c>
       <c r="G7">
         <v>23</v>
@@ -588,19 +588,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1542305310830249</v>
+        <v>0.08227230788722427</v>
       </c>
       <c r="C8">
-        <v>1.391611281455843</v>
+        <v>1.318120586854214</v>
       </c>
       <c r="D8">
-        <v>7.566127095767188</v>
+        <v>7.426106611105771</v>
       </c>
       <c r="E8">
-        <v>2.750659392903307</v>
+        <v>2.72508836757742</v>
       </c>
       <c r="F8">
-        <v>2.808055141407951</v>
+        <v>2.785063824995722</v>
       </c>
       <c r="G8">
         <v>23</v>
@@ -611,19 +611,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.07646437456699881</v>
+        <v>0.1542305310830249</v>
       </c>
       <c r="C9">
-        <v>1.325677262431856</v>
+        <v>1.391611281455843</v>
       </c>
       <c r="D9">
-        <v>7.411852158525697</v>
+        <v>7.566127095767188</v>
       </c>
       <c r="E9">
-        <v>2.722471700224944</v>
+        <v>2.750659392903307</v>
       </c>
       <c r="F9">
-        <v>2.782560325514475</v>
+        <v>2.808055141407951</v>
       </c>
       <c r="G9">
         <v>23</v>
@@ -634,19 +634,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.09571397171271183</v>
+        <v>0.07646437456699881</v>
       </c>
       <c r="C10">
-        <v>1.368091915780792</v>
+        <v>1.325677262431856</v>
       </c>
       <c r="D10">
-        <v>7.486065218487993</v>
+        <v>7.411852158525697</v>
       </c>
       <c r="E10">
-        <v>2.736067473306898</v>
+        <v>2.722471700224944</v>
       </c>
       <c r="F10">
-        <v>2.795847515386641</v>
+        <v>2.782560325514475</v>
       </c>
       <c r="G10">
         <v>23</v>
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.06089602018342149</v>
+        <v>0.09571397171271183</v>
       </c>
       <c r="C11">
-        <v>1.19495528039359</v>
+        <v>1.368091915780792</v>
       </c>
       <c r="D11">
-        <v>7.144702766220164</v>
+        <v>7.486065218487993</v>
       </c>
       <c r="E11">
-        <v>2.672957681337317</v>
+        <v>2.736067473306898</v>
       </c>
       <c r="F11">
-        <v>2.732322290168679</v>
+        <v>2.795847515386641</v>
       </c>
       <c r="G11">
         <v>23</v>
